--- a/data/2026-01-12/leader_board.xlsx
+++ b/data/2026-01-12/leader_board.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>rank</t>
   </si>
@@ -40,10 +40,16 @@
     <t>workout_types</t>
   </si>
   <si>
+    <t>m.marycatherine@outlook.com</t>
+  </si>
+  <si>
     <t>krishna.sabbu@gmail.com</t>
   </si>
   <si>
     <t>padmanaresh1986@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> strength_training, cardio</t>
   </si>
   <si>
     <t>cardio</t>
@@ -404,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,22 +450,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>27474</v>
+        <v>10723</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2177</v>
       </c>
       <c r="E2">
-        <v>23.98</v>
+        <v>7.77</v>
       </c>
       <c r="F2">
-        <v>233.95</v>
+        <v>427</v>
       </c>
       <c r="G2">
-        <v>1380</v>
+        <v>1650</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,22 +476,48 @@
         <v>9</v>
       </c>
       <c r="C3">
+        <v>31380</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>29.59</v>
+      </c>
+      <c r="F3">
+        <v>297.95</v>
+      </c>
+      <c r="G3">
+        <v>1630</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>253</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>60.6</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.99</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>225</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
+      <c r="H4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/2026-01-12/leader_board.xlsx
+++ b/data/2026-01-12/leader_board.xlsx
@@ -40,19 +40,19 @@
     <t>workout_types</t>
   </si>
   <si>
+    <t>krishna.sabbu@gmail.com</t>
+  </si>
+  <si>
     <t>m.marycatherine@outlook.com</t>
   </si>
   <si>
-    <t>krishna.sabbu@gmail.com</t>
-  </si>
-  <si>
     <t>padmanaresh1986@gmail.com</t>
   </si>
   <si>
+    <t>cardio</t>
+  </si>
+  <si>
     <t xml:space="preserve"> strength_training, cardio</t>
-  </si>
-  <si>
-    <t>cardio</t>
   </si>
 </sst>
 </file>
@@ -450,19 +450,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>10723</v>
+        <v>33287</v>
       </c>
       <c r="D2">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.77</v>
+        <v>33.59</v>
       </c>
       <c r="F2">
-        <v>427</v>
+        <v>297.95</v>
       </c>
       <c r="G2">
-        <v>1650</v>
+        <v>2015</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -476,19 +476,19 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>31380</v>
+        <v>10723</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2177</v>
       </c>
       <c r="E3">
-        <v>29.59</v>
+        <v>7.77</v>
       </c>
       <c r="F3">
-        <v>297.95</v>
+        <v>427</v>
       </c>
       <c r="G3">
-        <v>1630</v>
+        <v>1550</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -517,7 +517,7 @@
         <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
